--- a/data/trans_orig/P57C2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57C2_2023-Edad-trans_orig.xlsx
@@ -754,19 +754,19 @@
         <v>9725</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2266</v>
+        <v>2306</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22481</v>
+        <v>26563</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02682705963693532</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006250672772156408</v>
+        <v>0.006362182419785128</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06201368306952042</v>
+        <v>0.07327519215573745</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -775,19 +775,19 @@
         <v>9725</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3314</v>
+        <v>2238</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>28815</v>
+        <v>23910</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01262503799989507</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004301941172745807</v>
+        <v>0.002905415270548955</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03740676310263753</v>
+        <v>0.03103916789775064</v>
       </c>
     </row>
     <row r="5">
@@ -817,19 +817,19 @@
         <v>9865</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3958</v>
+        <v>4395</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>20855</v>
+        <v>21577</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02721166627669586</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01091856392341168</v>
+        <v>0.01212282915759831</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05752975056072893</v>
+        <v>0.05952036361793237</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -838,19 +838,19 @@
         <v>9865</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4306</v>
+        <v>3566</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>22403</v>
+        <v>21693</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01280603709214384</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.005590623493315744</v>
+        <v>0.004629766437100882</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02908344943271765</v>
+        <v>0.02816213620742431</v>
       </c>
     </row>
     <row r="6">
@@ -867,19 +867,19 @@
         <v>18396</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7370</v>
+        <v>7606</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>38269</v>
+        <v>35665</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04511149158327236</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01807214887646202</v>
+        <v>0.01865218579058185</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0938437729583679</v>
+        <v>0.08745969198688423</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>18</v>
@@ -888,19 +888,19 @@
         <v>30292</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>18166</v>
+        <v>18705</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>47478</v>
+        <v>47270</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08356164136824215</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05011101365661885</v>
+        <v>0.0515987344294291</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1309681524076881</v>
+        <v>0.1303951831206219</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>26</v>
@@ -909,19 +909,19 @@
         <v>48688</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>29374</v>
+        <v>32688</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>69532</v>
+        <v>71384</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.06320645274213742</v>
+        <v>0.0632064527421374</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03813273321081808</v>
+        <v>0.04243499175067955</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09026579727099279</v>
+        <v>0.09266974462677612</v>
       </c>
     </row>
     <row r="7">
@@ -938,19 +938,19 @@
         <v>159844</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>130042</v>
+        <v>128372</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>192331</v>
+        <v>191615</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3919734510249682</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3188921397392395</v>
+        <v>0.314795940698107</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4716380975028137</v>
+        <v>0.469882012914663</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>76</v>
@@ -959,19 +959,19 @@
         <v>135840</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>112300</v>
+        <v>109246</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>163398</v>
+        <v>160221</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3747173616064302</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3097825799218493</v>
+        <v>0.3013595555884651</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4507381626157684</v>
+        <v>0.4419748606371695</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>143</v>
@@ -980,19 +980,19 @@
         <v>295684</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>254162</v>
+        <v>256152</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>333542</v>
+        <v>336588</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3838525914306993</v>
+        <v>0.3838525914306992</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3299499279978375</v>
+        <v>0.3325329579561898</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.432999962546889</v>
+        <v>0.4369539747065386</v>
       </c>
     </row>
     <row r="8">
@@ -1009,19 +1009,19 @@
         <v>229553</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>196405</v>
+        <v>197432</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>261245</v>
+        <v>264354</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5629150573917596</v>
+        <v>0.5629150573917595</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4816290313687054</v>
+        <v>0.4841486398241661</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6406307944488879</v>
+        <v>0.6482562499215537</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>103</v>
@@ -1030,19 +1030,19 @@
         <v>176791</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>149466</v>
+        <v>152656</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>201116</v>
+        <v>202772</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4876822711116964</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4123058339898054</v>
+        <v>0.4211047242894636</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5547831618246802</v>
+        <v>0.5593527887863357</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>200</v>
@@ -1051,19 +1051,19 @@
         <v>406343</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>366397</v>
+        <v>365243</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>452880</v>
+        <v>447398</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5275098807351244</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4756522225327731</v>
+        <v>0.4741532620617323</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5879226716680881</v>
+        <v>0.5808059967776793</v>
       </c>
     </row>
     <row r="9">
@@ -1155,19 +1155,19 @@
         <v>3763</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1189</v>
+        <v>1169</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10256</v>
+        <v>10216</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007890199425408693</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002493236295996494</v>
+        <v>0.002452266249928144</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02150630364221607</v>
+        <v>0.02142255306343598</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -1176,19 +1176,19 @@
         <v>3957</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1092</v>
+        <v>968</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9501</v>
+        <v>9509</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.007896539240941877</v>
+        <v>0.007896539240941875</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002178886774892919</v>
+        <v>0.001932604451855239</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01896007905898697</v>
+        <v>0.0189768219734726</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -1197,19 +1197,19 @@
         <v>7720</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3501</v>
+        <v>3419</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15694</v>
+        <v>15513</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007893447749446213</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003579766915760197</v>
+        <v>0.00349641489838946</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01604722047743995</v>
+        <v>0.01586268858623042</v>
       </c>
     </row>
     <row r="11">
@@ -1226,19 +1226,19 @@
         <v>9327</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3552</v>
+        <v>3674</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>20803</v>
+        <v>21193</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01955790194572196</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.007447779511518146</v>
+        <v>0.0077043770030284</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04362276520348925</v>
+        <v>0.04443932945503146</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>12</v>
@@ -1247,19 +1247,19 @@
         <v>13478</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7239</v>
+        <v>7759</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>23081</v>
+        <v>23250</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.02689744395938368</v>
+        <v>0.02689744395938367</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01444689132113866</v>
+        <v>0.01548474012479439</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04606234528883219</v>
+        <v>0.04639949415086875</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>18</v>
@@ -1268,19 +1268,19 @@
         <v>22805</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>14298</v>
+        <v>13661</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>36537</v>
+        <v>37313</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02331845469723143</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01462003035690788</v>
+        <v>0.01396855089436338</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03736000308196697</v>
+        <v>0.0381538737526457</v>
       </c>
     </row>
     <row r="12">
@@ -1297,19 +1297,19 @@
         <v>35529</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>23125</v>
+        <v>23726</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>53178</v>
+        <v>54222</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.07450098199505582</v>
+        <v>0.07450098199505581</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04849230878623451</v>
+        <v>0.04975061251268057</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1115093454735216</v>
+        <v>0.1136990713014066</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>18</v>
@@ -1318,19 +1318,19 @@
         <v>23384</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>14033</v>
+        <v>13404</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>36261</v>
+        <v>36027</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.04666781539053434</v>
+        <v>0.04666781539053433</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02800532201301209</v>
+        <v>0.02675052951523097</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.072365890438219</v>
+        <v>0.07189774297671592</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>41</v>
@@ -1339,19 +1339,19 @@
         <v>58913</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>43062</v>
+        <v>40387</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>82495</v>
+        <v>79636</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06024013423874797</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04403156447531288</v>
+        <v>0.04129626268395695</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08435283729088013</v>
+        <v>0.08142981455082261</v>
       </c>
     </row>
     <row r="13">
@@ -1368,19 +1368,19 @@
         <v>184503</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>158335</v>
+        <v>157607</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>213420</v>
+        <v>211388</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.3868869755690567</v>
+        <v>0.3868869755690568</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.332016748986932</v>
+        <v>0.3304890279864622</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4475242140350614</v>
+        <v>0.4432626773878888</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>214</v>
@@ -1389,19 +1389,19 @@
         <v>224825</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>203136</v>
+        <v>202463</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>248850</v>
+        <v>250518</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4486776824571689</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4053929787155104</v>
+        <v>0.4040505947721236</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4966240594855911</v>
+        <v>0.4999523889540113</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>336</v>
@@ -1410,19 +1410,19 @@
         <v>409327</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>371057</v>
+        <v>375845</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>443088</v>
+        <v>449950</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4185466094226788</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3794139686313027</v>
+        <v>0.3843105699429233</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4530672733362025</v>
+        <v>0.4600847808629263</v>
       </c>
     </row>
     <row r="14">
@@ -1439,19 +1439,19 @@
         <v>243769</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>216139</v>
+        <v>213769</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>272148</v>
+        <v>270783</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5111639410647567</v>
+        <v>0.5111639410647568</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4532270292300773</v>
+        <v>0.4482564616965244</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5706729623691605</v>
+        <v>0.5678101272509352</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>212</v>
@@ -1460,19 +1460,19 @@
         <v>235439</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>212237</v>
+        <v>208615</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>257543</v>
+        <v>258144</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4698605189519711</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4235556618283259</v>
+        <v>0.4163290816265495</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5139735564027639</v>
+        <v>0.5151723906826318</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>360</v>
@@ -1481,19 +1481,19 @@
         <v>479208</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>441042</v>
+        <v>442470</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>514489</v>
+        <v>515555</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4900013538918955</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4509756125472128</v>
+        <v>0.4524357290804847</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5260772997109285</v>
+        <v>0.5271673531265336</v>
       </c>
     </row>
     <row r="15">
@@ -1585,19 +1585,19 @@
         <v>10695</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4477</v>
+        <v>4348</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21885</v>
+        <v>20594</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01722708457055149</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007211447312123091</v>
+        <v>0.007003922429502622</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03525144316853009</v>
+        <v>0.03317101605132312</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1606,19 +1606,19 @@
         <v>3273</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1035</v>
+        <v>967</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8564</v>
+        <v>8915</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.005260782194096304</v>
+        <v>0.005260782194096303</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001663299460766461</v>
+        <v>0.001555034629136778</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0137657189572177</v>
+        <v>0.01432955210487076</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -1627,19 +1627,19 @@
         <v>13968</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7628</v>
+        <v>7907</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>24846</v>
+        <v>27148</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01123766405270908</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006136721811361851</v>
+        <v>0.00636108401783603</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01998879122854138</v>
+        <v>0.02184130336694131</v>
       </c>
     </row>
     <row r="17">
@@ -1656,19 +1656,19 @@
         <v>12581</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6743</v>
+        <v>7122</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>22124</v>
+        <v>21460</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.02026417060019874</v>
+        <v>0.02026417060019875</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01086075555521881</v>
+        <v>0.01147240115617782</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03563589202152162</v>
+        <v>0.03456599873700181</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>28</v>
@@ -1677,19 +1677,19 @@
         <v>20450</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>14374</v>
+        <v>13965</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>29485</v>
+        <v>28630</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03287084962456584</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02310376531220543</v>
+        <v>0.02244661322106298</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04739218361596905</v>
+        <v>0.04601899980452878</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>40</v>
@@ -1698,19 +1698,19 @@
         <v>33031</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>24308</v>
+        <v>23761</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>46045</v>
+        <v>44813</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02657411494515899</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01955603017750525</v>
+        <v>0.01911603897753462</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03704377975092853</v>
+        <v>0.03605318445503916</v>
       </c>
     </row>
     <row r="18">
@@ -1727,19 +1727,19 @@
         <v>31940</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>21232</v>
+        <v>21153</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>45788</v>
+        <v>45145</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05144604414004592</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03419927098041312</v>
+        <v>0.03407216832470724</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.07375203040356766</v>
+        <v>0.07271643291596817</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>54</v>
@@ -1748,19 +1748,19 @@
         <v>40396</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>31220</v>
+        <v>30807</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>52080</v>
+        <v>52116</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06493083085758426</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05018140962876914</v>
+        <v>0.04951764002228358</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.0837112754402079</v>
+        <v>0.08376948799676912</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>82</v>
@@ -1769,19 +1769,19 @@
         <v>72336</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>57999</v>
+        <v>56433</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>89355</v>
+        <v>87908</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05819550238569978</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04666104422493488</v>
+        <v>0.04540184089909415</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.07188771443083955</v>
+        <v>0.07072405002635844</v>
       </c>
     </row>
     <row r="19">
@@ -1798,19 +1798,19 @@
         <v>259934</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>234762</v>
+        <v>234667</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>285037</v>
+        <v>287490</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4186825302663267</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3781376427640351</v>
+        <v>0.3779843469200373</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4591173860044731</v>
+        <v>0.4630690568074504</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>421</v>
@@ -1819,19 +1819,19 @@
         <v>295608</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>275691</v>
+        <v>274431</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>316855</v>
+        <v>316078</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4751477525079252</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.443134784837194</v>
+        <v>0.4411091840867246</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5092999397312881</v>
+        <v>0.5080504502528373</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>660</v>
@@ -1840,19 +1840,19 @@
         <v>555542</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>520019</v>
+        <v>520869</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>588784</v>
+        <v>591881</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4469447243843517</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4183661262375023</v>
+        <v>0.4190502672819024</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.473688913370828</v>
+        <v>0.4761804660795247</v>
       </c>
     </row>
     <row r="20">
@@ -1869,19 +1869,19 @@
         <v>305688</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>276895</v>
+        <v>277410</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>330524</v>
+        <v>330822</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.4923801704228772</v>
+        <v>0.4923801704228773</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4460032908220531</v>
+        <v>0.4468317429984774</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5323849873905999</v>
+        <v>0.5328640773001638</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>339</v>
@@ -1890,19 +1890,19 @@
         <v>262412</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>241227</v>
+        <v>241000</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>283458</v>
+        <v>283868</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4217897848158284</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3877383852629195</v>
+        <v>0.3873727190521833</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4556183235031391</v>
+        <v>0.4562775293410334</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>598</v>
@@ -1911,19 +1911,19 @@
         <v>568100</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>533570</v>
+        <v>533551</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>601922</v>
+        <v>603352</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4570479942320804</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4292682995666137</v>
+        <v>0.4292528625740341</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4842584486450151</v>
+        <v>0.4854090085968947</v>
       </c>
     </row>
     <row r="21">
@@ -2015,19 +2015,19 @@
         <v>15543</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8618</v>
+        <v>8483</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>27137</v>
+        <v>27474</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02221448277806762</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01231735820520318</v>
+        <v>0.0121235978578899</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03878359698979045</v>
+        <v>0.03926527460626709</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>13</v>
@@ -2036,19 +2036,19 @@
         <v>8914</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4680</v>
+        <v>4813</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>14199</v>
+        <v>14600</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01211433098903386</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.006359828874500841</v>
+        <v>0.006541891177039711</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01929723307988078</v>
+        <v>0.01984292420677369</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>26</v>
@@ -2057,19 +2057,19 @@
         <v>24457</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>16366</v>
+        <v>15351</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>37909</v>
+        <v>36522</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01703741451869814</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01140107119411722</v>
+        <v>0.01069372041091714</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02640848283500606</v>
+        <v>0.02544245535201112</v>
       </c>
     </row>
     <row r="23">
@@ -2086,19 +2086,19 @@
         <v>25582</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>17166</v>
+        <v>17541</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>37026</v>
+        <v>38125</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03656124599784041</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0245342492720235</v>
+        <v>0.02506900267192972</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0529171781114617</v>
+        <v>0.05448879447629113</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>40</v>
@@ -2107,19 +2107,19 @@
         <v>26443</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>18582</v>
+        <v>19603</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>35721</v>
+        <v>36531</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03593877658929377</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02525405448156077</v>
+        <v>0.0266421902227351</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04854792199378167</v>
+        <v>0.04964917479821451</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>65</v>
@@ -2128,19 +2128,19 @@
         <v>52025</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>40168</v>
+        <v>41374</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>66109</v>
+        <v>66218</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03624218479116487</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0279823767435942</v>
+        <v>0.02882221626068149</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04605369972696788</v>
+        <v>0.04612904408824083</v>
       </c>
     </row>
     <row r="24">
@@ -2157,19 +2157,19 @@
         <v>50060</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>36972</v>
+        <v>36740</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>65566</v>
+        <v>64801</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07154550372189189</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05283997321036207</v>
+        <v>0.05250910189517855</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09370715134311666</v>
+        <v>0.09261396398466344</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>110</v>
@@ -2178,19 +2178,19 @@
         <v>73304</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>60588</v>
+        <v>62029</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>87029</v>
+        <v>87634</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.09962551539219541</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08234384339825611</v>
+        <v>0.08430293916212064</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1182799691830505</v>
+        <v>0.1191012531019356</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>157</v>
@@ -2199,19 +2199,19 @@
         <v>123363</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>105550</v>
+        <v>104265</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>143209</v>
+        <v>142333</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.08593856831908842</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07352917892621433</v>
+        <v>0.07263385189274027</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09976387077357658</v>
+        <v>0.09915346275537361</v>
       </c>
     </row>
     <row r="25">
@@ -2228,19 +2228,19 @@
         <v>325476</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>298024</v>
+        <v>298060</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>354123</v>
+        <v>354038</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.4651700753036059</v>
+        <v>0.4651700753036057</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4259356531580831</v>
+        <v>0.4259865047767609</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5061119400625309</v>
+        <v>0.5059901939547987</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>580</v>
@@ -2249,19 +2249,19 @@
         <v>356966</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>334055</v>
+        <v>332203</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>377575</v>
+        <v>377887</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4851457416755731</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4540075682723687</v>
+        <v>0.4514903243404504</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5131554539523787</v>
+        <v>0.5135798922216217</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>906</v>
@@ -2270,19 +2270,19 @@
         <v>682442</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>647883</v>
+        <v>649839</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>715492</v>
+        <v>716755</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.4754090687855007</v>
+        <v>0.4754090687855008</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4513342049373321</v>
+        <v>0.452696655160607</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.498432438823679</v>
+        <v>0.4993123599517248</v>
       </c>
     </row>
     <row r="26">
@@ -2299,19 +2299,19 @@
         <v>283032</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>254017</v>
+        <v>253976</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>310841</v>
+        <v>310340</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.4045086921985944</v>
+        <v>0.4045086921985943</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3630407455063677</v>
+        <v>0.3629821015969654</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4442535588241074</v>
+        <v>0.4435371698970969</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>396</v>
@@ -2320,19 +2320,19 @@
         <v>270165</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>250664</v>
+        <v>250156</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>292855</v>
+        <v>293140</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3671756353539039</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3406734023104792</v>
+        <v>0.3399825262085323</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3980134707606685</v>
+        <v>0.3984015214748013</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>649</v>
@@ -2341,19 +2341,19 @@
         <v>553196</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>521932</v>
+        <v>520683</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>588272</v>
+        <v>589688</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3853727635855479</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3635927594777201</v>
+        <v>0.362723242071317</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4098075284398208</v>
+        <v>0.4107941705764193</v>
       </c>
     </row>
     <row r="27">
@@ -2445,19 +2445,19 @@
         <v>7143</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3020</v>
+        <v>3019</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>13664</v>
+        <v>14323</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.01174143424208561</v>
+        <v>0.0117414342420856</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0049644176394874</v>
+        <v>0.00496267364367207</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02246030996703106</v>
+        <v>0.02354381669735419</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>18</v>
@@ -2466,19 +2466,19 @@
         <v>11901</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>6912</v>
+        <v>7299</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>18231</v>
+        <v>18441</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01962954267540142</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0114006460410417</v>
+        <v>0.01203787613243464</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03006964656054236</v>
+        <v>0.03041585987379973</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>25</v>
@@ -2487,19 +2487,19 @@
         <v>19044</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>12698</v>
+        <v>12594</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>27880</v>
+        <v>27771</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01567878924500123</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01045426954582804</v>
+        <v>0.01036799164938264</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02295332544940211</v>
+        <v>0.02286336928682904</v>
       </c>
     </row>
     <row r="29">
@@ -2516,19 +2516,19 @@
         <v>25355</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>17369</v>
+        <v>16738</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>36379</v>
+        <v>35868</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.04167816840807589</v>
+        <v>0.04167816840807588</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02855012579836667</v>
+        <v>0.02751387045753324</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05979806322284236</v>
+        <v>0.05895843865041472</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>44</v>
@@ -2537,19 +2537,19 @@
         <v>27394</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>20880</v>
+        <v>20185</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>37235</v>
+        <v>37636</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.04518245453956505</v>
+        <v>0.04518245453956504</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03443800560013655</v>
+        <v>0.03329235696785447</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06141309769736304</v>
+        <v>0.06207571764208234</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>72</v>
@@ -2558,19 +2558,19 @@
         <v>52749</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>41182</v>
+        <v>41956</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>66776</v>
+        <v>66288</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.04342733535324511</v>
+        <v>0.04342733535324513</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03390459533079992</v>
+        <v>0.03454108995566398</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05497521631566941</v>
+        <v>0.05457386311174411</v>
       </c>
     </row>
     <row r="30">
@@ -2587,19 +2587,19 @@
         <v>73229</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>59511</v>
+        <v>58500</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>90212</v>
+        <v>91570</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.1203708413614113</v>
+        <v>0.1203708413614112</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.09782259244737078</v>
+        <v>0.09616021517192239</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1482870962135794</v>
+        <v>0.1505188962345577</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>154</v>
@@ -2608,19 +2608,19 @@
         <v>95982</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>82296</v>
+        <v>82335</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>109944</v>
+        <v>110982</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.1583090256784118</v>
+        <v>0.1583090256784117</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1357353443422765</v>
+        <v>0.1358002258510683</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1813368983407137</v>
+        <v>0.1830493314145052</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>234</v>
@@ -2629,19 +2629,19 @@
         <v>169211</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>150529</v>
+        <v>149577</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>191183</v>
+        <v>190728</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1393077133738673</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1239271051953997</v>
+        <v>0.1231435715879891</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1573968370593948</v>
+        <v>0.1570226132266971</v>
       </c>
     </row>
     <row r="31">
@@ -2658,19 +2658,19 @@
         <v>317828</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>294713</v>
+        <v>294447</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>342663</v>
+        <v>342252</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.5224349373993141</v>
+        <v>0.522434937399314</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.4844392002302855</v>
+        <v>0.4840020429660558</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.5632572522120636</v>
+        <v>0.5625818011737375</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>527</v>
@@ -2679,19 +2679,19 @@
         <v>307982</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>290577</v>
+        <v>289565</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>329532</v>
+        <v>327352</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.5079728369800874</v>
+        <v>0.5079728369800873</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.479265386462374</v>
+        <v>0.4775965717909143</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.5435169255302894</v>
+        <v>0.5399213576184256</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>885</v>
@@ -2700,19 +2700,19 @@
         <v>625810</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>596362</v>
+        <v>594065</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>658998</v>
+        <v>655604</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.5152161695642002</v>
+        <v>0.5152161695642001</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.4909725800947469</v>
+        <v>0.4890815699552944</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.5425393859507324</v>
+        <v>0.5397452871869629</v>
       </c>
     </row>
     <row r="32">
@@ -2729,19 +2729,19 @@
         <v>184804</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>164712</v>
+        <v>162302</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>209939</v>
+        <v>208252</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.3037746185891134</v>
+        <v>0.3037746185891133</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2707473451285746</v>
+        <v>0.2667873116312807</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3450906764313352</v>
+        <v>0.3423180115543817</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>255</v>
@@ -2750,19 +2750,19 @@
         <v>163037</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>145713</v>
+        <v>146323</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>179662</v>
+        <v>180752</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.2689061401265345</v>
+        <v>0.2689061401265344</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2403330771237118</v>
+        <v>0.2413398240686361</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2963271788521029</v>
+        <v>0.2981249123570602</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>444</v>
@@ -2771,19 +2771,19 @@
         <v>347841</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>320402</v>
+        <v>319735</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>380369</v>
+        <v>376497</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2863699924636862</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2637804315287776</v>
+        <v>0.2632309353943906</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3131497882075094</v>
+        <v>0.3099617763783732</v>
       </c>
     </row>
     <row r="33">
@@ -2875,19 +2875,19 @@
         <v>4080</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1518</v>
+        <v>1477</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>8902</v>
+        <v>8081</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.01005320750030586</v>
+        <v>0.01005320750030587</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.003740110925086131</v>
+        <v>0.00363895523589044</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02193403880841694</v>
+        <v>0.01991144962966004</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>9</v>
@@ -2896,19 +2896,19 @@
         <v>5210</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2368</v>
+        <v>2676</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>9621</v>
+        <v>9828</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01187889664290798</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.005399562022246954</v>
+        <v>0.006101660683498553</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.0219375468527205</v>
+        <v>0.02240890522820992</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>15</v>
@@ -2917,19 +2917,19 @@
         <v>9290</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>5268</v>
+        <v>5093</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>14926</v>
+        <v>15559</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01100139589353142</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.006238816740061419</v>
+        <v>0.006031832445927763</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01767585156481498</v>
+        <v>0.01842636161064693</v>
       </c>
     </row>
     <row r="35">
@@ -2946,19 +2946,19 @@
         <v>11484</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>6934</v>
+        <v>6774</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>17660</v>
+        <v>17340</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.02829593273816881</v>
+        <v>0.0282959327381688</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01708548725322381</v>
+        <v>0.01669123140054402</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.04351290371941783</v>
+        <v>0.0427235556878888</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>45</v>
@@ -2967,19 +2967,19 @@
         <v>24525</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>18109</v>
+        <v>17844</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>31470</v>
+        <v>31906</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.05592170953775177</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.04129246801904213</v>
+        <v>0.0406881819343145</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.07175852973685216</v>
+        <v>0.07275362489258967</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>63</v>
@@ -2988,19 +2988,19 @@
         <v>36009</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>28342</v>
+        <v>28380</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>46075</v>
+        <v>46419</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.04264363317849126</v>
+        <v>0.04264363317849125</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03356357653538178</v>
+        <v>0.03360862746319215</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.05456499255605866</v>
+        <v>0.05497133502733095</v>
       </c>
     </row>
     <row r="36">
@@ -3017,19 +3017,19 @@
         <v>51726</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>41722</v>
+        <v>41717</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>63908</v>
+        <v>62666</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1274476814009265</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1027999075445278</v>
+        <v>0.1027876353115594</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.157463395651493</v>
+        <v>0.1544026007392926</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>120</v>
@@ -3038,19 +3038,19 @@
         <v>61532</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>50743</v>
+        <v>51408</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>72010</v>
+        <v>71798</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.1403061524401369</v>
+        <v>0.1403061524401368</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1157053222882779</v>
+        <v>0.117221930142302</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1641984568646557</v>
+        <v>0.1637151650276912</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>198</v>
@@ -3059,19 +3059,19 @@
         <v>113258</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>99647</v>
+        <v>98127</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>129122</v>
+        <v>129190</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1341258462152436</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1180072017172143</v>
+        <v>0.1162070134261187</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1529136374529849</v>
+        <v>0.1529942249409302</v>
       </c>
     </row>
     <row r="37">
@@ -3088,19 +3088,19 @@
         <v>213373</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>193975</v>
+        <v>195817</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>229615</v>
+        <v>229533</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.5257306307833776</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4779377283457932</v>
+        <v>0.4824750970956472</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5657498004806798</v>
+        <v>0.5655485822723417</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>427</v>
@@ -3109,19 +3109,19 @@
         <v>222906</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>207902</v>
+        <v>208370</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>238180</v>
+        <v>238033</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.5082747291792252</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.4740634499012464</v>
+        <v>0.4751296261910122</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5431018849942836</v>
+        <v>0.5427667909258592</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>722</v>
@@ -3130,19 +3130,19 @@
         <v>436278</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>415056</v>
+        <v>413442</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>458555</v>
+        <v>459335</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.5166647482581882</v>
+        <v>0.5166647482581881</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.4915317772273552</v>
+        <v>0.4896210500559317</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.5430461100640329</v>
+        <v>0.5439695443798099</v>
       </c>
     </row>
     <row r="38">
@@ -3159,19 +3159,19 @@
         <v>125196</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>109871</v>
+        <v>111446</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>141640</v>
+        <v>142560</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3084725475772212</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2707125888578203</v>
+        <v>0.2745926066234429</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3489872671745378</v>
+        <v>0.351255479893021</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>225</v>
@@ -3180,19 +3180,19 @@
         <v>124382</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>110583</v>
+        <v>110983</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>138905</v>
+        <v>138560</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2836185121999781</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2521530418803664</v>
+        <v>0.2530648298376335</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3167346125859706</v>
+        <v>0.3159478557720751</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>396</v>
@@ -3201,19 +3201,19 @@
         <v>249578</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>229730</v>
+        <v>229551</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>272000</v>
+        <v>270963</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.2955643764545456</v>
+        <v>0.2955643764545455</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2720584951591566</v>
+        <v>0.2718472666778893</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3221175316061098</v>
+        <v>0.3208889630026326</v>
       </c>
     </row>
     <row r="39">
@@ -3305,19 +3305,19 @@
         <v>1819</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>4854</v>
+        <v>4775</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.005876402602338169</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.001534938772198993</v>
+        <v>0.001520686104720964</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01568298029735574</v>
+        <v>0.01542644515192124</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>17</v>
@@ -3326,19 +3326,19 @@
         <v>8528</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>5035</v>
+        <v>4965</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>13804</v>
+        <v>13855</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01854784821691856</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01095066802841634</v>
+        <v>0.01079853837267856</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.03002289139397467</v>
+        <v>0.03013340967591416</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>20</v>
@@ -3347,19 +3347,19 @@
         <v>10347</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>6480</v>
+        <v>6809</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>15999</v>
+        <v>15971</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01344956089605362</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.008423066782728647</v>
+        <v>0.008850884108849634</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02079706329311186</v>
+        <v>0.02075988463844404</v>
       </c>
     </row>
     <row r="41">
@@ -3376,19 +3376,19 @@
         <v>16049</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>10780</v>
+        <v>10433</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>23055</v>
+        <v>23130</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.05184934980061129</v>
+        <v>0.05184934980061128</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.03482776448774083</v>
+        <v>0.03370654875462142</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.07448451664908863</v>
+        <v>0.0747283672011253</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>75</v>
@@ -3397,19 +3397,19 @@
         <v>42037</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>33818</v>
+        <v>33316</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>52525</v>
+        <v>52448</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.0914291735849619</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.07355261681963962</v>
+        <v>0.07246045982814849</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1142400968762576</v>
+        <v>0.1140727035021388</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>100</v>
@@ -3418,19 +3418,19 @@
         <v>58086</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>48388</v>
+        <v>48196</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>71336</v>
+        <v>70351</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.07550444645440983</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.06289818856954403</v>
+        <v>0.06264886921326471</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.09272793982954301</v>
+        <v>0.09144786682757311</v>
       </c>
     </row>
     <row r="42">
@@ -3447,19 +3447,19 @@
         <v>48926</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>38965</v>
+        <v>39238</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>59471</v>
+        <v>59262</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1580685156321107</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1258848466731382</v>
+        <v>0.1267673752821967</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1921365653684124</v>
+        <v>0.1914604424925805</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>208</v>
@@ -3468,19 +3468,19 @@
         <v>104521</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>92058</v>
+        <v>91992</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>119420</v>
+        <v>118437</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2273279532448006</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2002205810226013</v>
+        <v>0.2000786187742373</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.259732767919047</v>
+        <v>0.2575940299967932</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>285</v>
@@ -3489,19 +3489,19 @@
         <v>153447</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>136751</v>
+        <v>137814</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>170083</v>
+        <v>169570</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1994617946886913</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1777590650439737</v>
+        <v>0.1791400684723821</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.22108579196986</v>
+        <v>0.2204192666348838</v>
       </c>
     </row>
     <row r="43">
@@ -3518,19 +3518,19 @@
         <v>154110</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>139628</v>
+        <v>139921</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>168146</v>
+        <v>169624</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.4978898944772666</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.4511015446741926</v>
+        <v>0.4520490429918718</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.5432347280854956</v>
+        <v>0.5480117239958562</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>423</v>
@@ -3539,19 +3539,19 @@
         <v>218639</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>204126</v>
+        <v>202549</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>234941</v>
+        <v>233690</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.4755287577896847</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.4439631918558296</v>
+        <v>0.4405347258251732</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.5109848044762068</v>
+        <v>0.5082643395729143</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>651</v>
@@ -3560,19 +3560,19 @@
         <v>372749</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>352852</v>
+        <v>352523</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>395316</v>
+        <v>395289</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.4845256396863522</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.4586617044934476</v>
+        <v>0.4582349103626521</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.5138598992475942</v>
+        <v>0.5138246163570499</v>
       </c>
     </row>
     <row r="44">
@@ -3589,19 +3589,19 @@
         <v>88622</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>75385</v>
+        <v>75429</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>100888</v>
+        <v>102367</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2863158374876732</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2435475536061682</v>
+        <v>0.2436898551175941</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3259421823758185</v>
+        <v>0.3307196203892365</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>151</v>
@@ -3610,19 +3610,19 @@
         <v>86055</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>73288</v>
+        <v>73448</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>98344</v>
+        <v>97953</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.1871662671636343</v>
+        <v>0.1871662671636344</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1593982856830392</v>
+        <v>0.1597458148659431</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2138928413545532</v>
+        <v>0.2130427207466617</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>275</v>
@@ -3631,19 +3631,19 @@
         <v>174678</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>156149</v>
+        <v>156957</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>192303</v>
+        <v>193831</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.227058558274493</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2029734707983341</v>
+        <v>0.2040233693986543</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2499686415888259</v>
+        <v>0.251955624129072</v>
       </c>
     </row>
     <row r="45">
@@ -3735,19 +3735,19 @@
         <v>43043</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>30049</v>
+        <v>30423</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>57999</v>
+        <v>58389</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01219719293569244</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.008515033333032272</v>
+        <v>0.008620876188467304</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01643521740562243</v>
+        <v>0.01654577651377582</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>69</v>
@@ -3756,19 +3756,19 @@
         <v>51507</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>38695</v>
+        <v>39298</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>67964</v>
+        <v>68029</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.01382317435319006</v>
+        <v>0.01382317435319007</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.01038470615590315</v>
+        <v>0.01054655059598973</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.01823959854440488</v>
+        <v>0.01825711671903485</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>109</v>
@@ -3777,19 +3777,19 @@
         <v>94551</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>76322</v>
+        <v>76865</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>116073</v>
+        <v>116951</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.01303228105684271</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.01051980706545357</v>
+        <v>0.01059459841328445</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01599877904784335</v>
+        <v>0.01611982962836463</v>
       </c>
     </row>
     <row r="47">
@@ -3806,19 +3806,19 @@
         <v>100378</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>78137</v>
+        <v>83002</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>119890</v>
+        <v>121333</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.02844396770870044</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.02214171399871423</v>
+        <v>0.02352019161548561</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.03397326242165979</v>
+        <v>0.03438203096017238</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>250</v>
@@ -3827,19 +3827,19 @@
         <v>164192</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>145581</v>
+        <v>143766</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>188398</v>
+        <v>188232</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.04406473560504302</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.03907006614391671</v>
+        <v>0.03858294681966928</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.05056106750013895</v>
+        <v>0.05051630422635739</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>364</v>
@@ -3848,19 +3848,19 @@
         <v>264570</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>236333</v>
+        <v>236955</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>292383</v>
+        <v>296968</v>
       </c>
       <c r="U47" s="6" t="n">
-        <v>0.03646664101425209</v>
+        <v>0.03646664101425208</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.0325746829279954</v>
+        <v>0.03266034482596112</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.04030024217048588</v>
+        <v>0.04093222906730541</v>
       </c>
     </row>
     <row r="48">
@@ -3877,19 +3877,19 @@
         <v>309805</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>274850</v>
+        <v>277383</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>346088</v>
+        <v>346623</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.08778946727765576</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.07788410034571777</v>
+        <v>0.07860189819888534</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.09807095649774022</v>
+        <v>0.09822248664038913</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>682</v>
@@ -3898,19 +3898,19 @@
         <v>429411</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>395654</v>
+        <v>397123</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>461584</v>
+        <v>465159</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.1152423754265125</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1061828284506114</v>
+        <v>0.106577222445192</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.1238766686329855</v>
+        <v>0.1248362483219484</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>1023</v>
@@ -3919,19 +3919,19 @@
         <v>739216</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>691408</v>
+        <v>694107</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>787476</v>
+        <v>790131</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.1018890118600423</v>
+        <v>0.1018890118600422</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.0952993648554596</v>
+        <v>0.09567138467903508</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.108540884767542</v>
+        <v>0.1089067972864593</v>
       </c>
     </row>
     <row r="49">
@@ -3948,19 +3948,19 @@
         <v>1615067</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>1551911</v>
+        <v>1550043</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>1679713</v>
+        <v>1680817</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.4576612313229368</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.4397645909152729</v>
+        <v>0.4392354513902784</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.4759797617463169</v>
+        <v>0.4762927332067297</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>2668</v>
@@ -3969,19 +3969,19 @@
         <v>1762765</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>1704596</v>
+        <v>1711195</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>1817685</v>
+        <v>1814755</v>
       </c>
       <c r="N49" s="6" t="n">
-        <v>0.4730786843271226</v>
+        <v>0.4730786843271227</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.4574678015742682</v>
+        <v>0.4592388010930072</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.4878179470309468</v>
+        <v>0.4870314113034711</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>4303</v>
@@ -3990,19 +3990,19 @@
         <v>3377832</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>3288178</v>
+        <v>3292737</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>3471450</v>
+        <v>3463234</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.4655794840923951</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.4532220355905585</v>
+        <v>0.4538504584431223</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.4784831992397954</v>
+        <v>0.4773507184075819</v>
       </c>
     </row>
     <row r="50">
@@ -4019,19 +4019,19 @@
         <v>1460664</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>1396017</v>
+        <v>1391391</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>1526774</v>
+        <v>1525496</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.4139081407550146</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.3955890518945985</v>
+        <v>0.3942780809906279</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.4326417165563635</v>
+        <v>0.432279533915326</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>1681</v>
@@ -4040,19 +4040,19 @@
         <v>1318280</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>1266851</v>
+        <v>1265327</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>1377152</v>
+        <v>1371027</v>
       </c>
       <c r="N50" s="6" t="n">
-        <v>0.3537910302881317</v>
+        <v>0.3537910302881318</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.3399887280924871</v>
+        <v>0.3395797066128034</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.3695905402340902</v>
+        <v>0.3679468147787068</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>2922</v>
@@ -4061,19 +4061,19 @@
         <v>2778945</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>2692468</v>
+        <v>2687743</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>2867552</v>
+        <v>2865129</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.3830325819764679</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.3711131486245309</v>
+        <v>0.370461807737493</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.3952456492576848</v>
+        <v>0.3949116131223193</v>
       </c>
     </row>
     <row r="51">
